--- a/data/trans_orig/P22S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P22S3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC86891-E891-4B9A-97E3-380E63EC4E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E97432-D0D4-4E73-87B3-5E8C4715F084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49024C07-7461-4225-958F-B5B1A8F7E5B0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C4BB8F6-5D32-4672-8ECD-680CA56C1F42}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="76">
   <si>
     <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -140,13 +140,13 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,23%</t>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -155,115 +155,109 @@
     <t>0,21%</t>
   </si>
   <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
     <t>0,14%</t>
   </si>
   <si>
     <t>0,01%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>99,97%</t>
@@ -681,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26A058D-A026-4DD0-B459-2AD9F2DD8225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F7B9AB-1263-4BBD-9450-F6F1919E9C70}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,22 +1591,22 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,14 +1621,14 @@
         <v>1099</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
@@ -1648,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -1657,13 +1651,13 @@
         <v>1099</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,22 +1693,22 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1729,10 +1723,10 @@
         <v>727673</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -1747,7 +1741,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>21</v>
@@ -1759,10 +1753,10 @@
         <v>1602043</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -1821,7 +1815,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1839,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1863,13 +1857,13 @@
         <v>1186</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,13 +1893,13 @@
         <v>693</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -1914,13 +1908,13 @@
         <v>693</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,7 +1983,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>19</v>
@@ -2001,10 +1995,10 @@
         <v>1149739</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>19</v>
@@ -2016,10 +2010,10 @@
         <v>2113956</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>19</v>
@@ -2096,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2111,7 +2105,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2120,13 +2114,13 @@
         <v>2047</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2135,13 @@
         <v>1099</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2162,7 +2156,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2174,10 +2168,10 @@
         <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2207,13 +2201,13 @@
         <v>407</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2222,13 +2216,13 @@
         <v>407</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,10 +2237,10 @@
         <v>3382943</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>19</v>
@@ -2258,10 +2252,10 @@
         <v>3805139</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>47</v>
@@ -2270,16 +2264,16 @@
         <v>8734</v>
       </c>
       <c r="N32" s="7">
-        <v>7188082</v>
+        <v>7188081</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,7 +2315,7 @@
         <v>8740</v>
       </c>
       <c r="N33" s="7">
-        <v>7193200</v>
+        <v>7193199</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>21</v>
@@ -2335,7 +2329,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P22S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P22S3-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E97432-D0D4-4E73-87B3-5E8C4715F084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E64495F-D738-4723-8312-153873519B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C4BB8F6-5D32-4672-8ECD-680CA56C1F42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39628488-842D-4DED-A9EC-463AE19961A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Seguro Médico concertado por su empresa</t>
@@ -110,7 +110,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -131,7 +131,7 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -182,7 +182,7 @@
     <t>99,98%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -675,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F7B9AB-1263-4BBD-9450-F6F1919E9C70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F96355-86CA-45AF-9E2B-C2B516CCA904}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
